--- a/biology/Zoologie/Buse_cendrée/Buse_cendrée.xlsx
+++ b/biology/Zoologie/Buse_cendrée/Buse_cendrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buse_cendr%C3%A9e</t>
+          <t>Buse_cendrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buteo nitidus
 La Buse cendrée (Buteo nitidus) est une petite espèce de rapaces de la famille des Accipitridae vivant en bordures des forêts et dans les zones déboisées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buse_cendr%C3%A9e</t>
+          <t>Buse_cendrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rapace mesure environ 41 cm de longueur. Il présente un plumage gris uniforme dessus et finement rayé dessous. La queue est marquée par une alternance de bandes sombres et claires dont une large et blanche bien visible. Les ailes courtes et larges sont adaptées à la chasse en milieu forestier.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buse_cendr%C3%A9e</t>
+          <t>Buse_cendrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre du sud du Costa Rica au nord de l'Argentine. On le rencontre aussi sur l'île de Trinidad[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre du sud du Costa Rica au nord de l'Argentine. On le rencontre aussi sur l'île de Trinidad.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Buse_cendr%C3%A9e</t>
+          <t>Buse_cendrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les savanes et les lisières forestières.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Buse_cendr%C3%A9e</t>
+          <t>Buse_cendrée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme des lézards, des petits mammifères, des gros insectes et des oiseaux.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Buse_cendr%C3%A9e</t>
+          <t>Buse_cendrée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des quatre sous-espèces suivantes :
 Buteo nitidus blakei Hellmayr &amp; Conover 1949 ;
